--- a/www.eia.gov/electricity/monthly/xls/table_3_02.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_3_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
   <si>
     <t>Table 3.2 Stocks of Coal, Petroleum Liquids, and Petroleum Coke:</t>
   </si>
   <si>
-    <t>Electric Power Sector, by State, October 2016 and 2015</t>
+    <t>Electric Power Sector, by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>Census Division
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Vermont</t>
+  </si>
+  <si>
+    <t>NM</t>
   </si>
   <si>
     <t>Middle Atlantic</t>
@@ -1307,22 +1310,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="10">
-        <v>1840</v>
+        <v>1913</v>
       </c>
       <c r="C5" s="10">
-        <v>1542</v>
+        <v>1687</v>
       </c>
       <c r="D5" s="11">
-        <v>0.19400000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E5" s="10">
-        <v>4477</v>
+        <v>4505</v>
       </c>
       <c r="F5" s="10">
-        <v>4462</v>
+        <v>4989</v>
       </c>
       <c r="G5" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
@@ -1348,13 +1351,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="13">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="F6" s="13">
-        <v>1595</v>
+        <v>1681</v>
       </c>
       <c r="G6" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -1412,13 +1415,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="13">
-        <v>1821</v>
+        <v>1882</v>
       </c>
       <c r="F8" s="13">
-        <v>1726</v>
+        <v>1988</v>
       </c>
       <c r="G8" s="14">
-        <v>5.5E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="H8" s="13">
         <v>0</v>
@@ -1507,14 +1510,14 @@
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
-        <v>49</v>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="13">
         <v>52</v>
       </c>
-      <c r="G11" s="14">
-        <v>-5.2999999999999999E-2</v>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -1528,25 +1531,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10">
-        <v>4895</v>
+        <v>5064</v>
       </c>
       <c r="C12" s="10">
-        <v>7901</v>
+        <v>8160</v>
       </c>
       <c r="D12" s="11">
-        <v>-0.38</v>
+        <v>-0.379</v>
       </c>
       <c r="E12" s="10">
-        <v>9347</v>
+        <v>5485</v>
       </c>
       <c r="F12" s="10">
-        <v>5433</v>
+        <v>6029</v>
       </c>
       <c r="G12" s="11">
-        <v>0.72</v>
+        <v>-0.09</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -1560,25 +1563,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="C13" s="13">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.17100000000000001</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="E13" s="13">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="F13" s="13">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="G13" s="14">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -1592,25 +1595,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="13">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="13">
-        <v>7348</v>
+        <v>3511</v>
       </c>
       <c r="F14" s="13">
-        <v>3216</v>
+        <v>3805</v>
       </c>
       <c r="G14" s="14">
-        <v>1.2849999999999999</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -1624,25 +1627,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="13">
-        <v>6519</v>
+        <v>6690</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="13">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="F15" s="13">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G15" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -1656,31 +1659,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="10">
-        <v>37837</v>
+        <v>38345</v>
       </c>
       <c r="C16" s="10">
-        <v>38433</v>
+        <v>41305</v>
       </c>
       <c r="D16" s="11">
-        <v>-1.6E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E16" s="10">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F16" s="10">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="G16" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="10">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>13</v>
@@ -1688,25 +1691,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>7958</v>
+        <v>7998</v>
       </c>
       <c r="C17" s="13">
-        <v>8864</v>
+        <v>9679</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.10199999999999999</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="E17" s="13">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="13">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="14">
-        <v>-0.14499999999999999</v>
+        <v>-0.183</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -1720,25 +1723,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13">
-        <v>10157</v>
+        <v>10388</v>
       </c>
       <c r="C18" s="13">
-        <v>10227</v>
+        <v>11023</v>
       </c>
       <c r="D18" s="14">
-        <v>-7.0000000000000001E-3</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E18" s="13">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F18" s="13">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="14">
-        <v>-3.6999999999999998E-2</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
@@ -1752,25 +1755,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="13">
-        <v>6281</v>
+        <v>6137</v>
       </c>
       <c r="C19" s="13">
-        <v>7961</v>
+        <v>8075</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.21099999999999999</v>
+        <v>-0.24</v>
       </c>
       <c r="E19" s="13">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F19" s="13">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G19" s="14">
-        <v>-5.2999999999999999E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>13</v>
@@ -1784,25 +1787,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="13">
-        <v>9036</v>
+        <v>9124</v>
       </c>
       <c r="C20" s="13">
-        <v>6711</v>
+        <v>7471</v>
       </c>
       <c r="D20" s="14">
-        <v>0.34599999999999997</v>
+        <v>0.221</v>
       </c>
       <c r="E20" s="13">
         <v>368</v>
       </c>
       <c r="F20" s="13">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G20" s="14">
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>13</v>
@@ -1816,25 +1819,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13">
-        <v>4406</v>
+        <v>4698</v>
       </c>
       <c r="C21" s="13">
-        <v>4670</v>
+        <v>5057</v>
       </c>
       <c r="D21" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F21" s="13">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G21" s="14">
-        <v>-7.0999999999999994E-2</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>13</v>
@@ -1848,25 +1851,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>31185</v>
+        <v>32437</v>
       </c>
       <c r="C22" s="10">
-        <v>28160</v>
+        <v>30205</v>
       </c>
       <c r="D22" s="11">
-        <v>0.107</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E22" s="10">
-        <v>987</v>
+        <v>947</v>
       </c>
       <c r="F22" s="10">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="G22" s="11">
-        <v>-0.442</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -1880,25 +1883,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>8220</v>
+        <v>8788</v>
       </c>
       <c r="C23" s="13">
-        <v>5916</v>
+        <v>6690</v>
       </c>
       <c r="D23" s="14">
-        <v>0.39</v>
+        <v>0.314</v>
       </c>
       <c r="E23" s="13">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F23" s="13">
         <v>169</v>
       </c>
       <c r="G23" s="14">
-        <v>-0.23899999999999999</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -1912,25 +1915,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="13">
-        <v>4675</v>
+        <v>4783</v>
       </c>
       <c r="C24" s="13">
-        <v>4135</v>
+        <v>4523</v>
       </c>
       <c r="D24" s="14">
-        <v>0.13100000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E24" s="13">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="13">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="G24" s="14">
-        <v>-0.81899999999999995</v>
+        <v>-0.82299999999999995</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -1944,25 +1947,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="13">
-        <v>4078</v>
+        <v>4305</v>
       </c>
       <c r="C25" s="13">
-        <v>4791</v>
+        <v>5060</v>
       </c>
       <c r="D25" s="14">
         <v>-0.14899999999999999</v>
       </c>
       <c r="E25" s="13">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F25" s="13">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G25" s="14">
-        <v>-0.16900000000000001</v>
+        <v>-0.129</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -1976,25 +1979,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="13">
-        <v>9242</v>
+        <v>9556</v>
       </c>
       <c r="C26" s="13">
-        <v>8593</v>
+        <v>9080</v>
       </c>
       <c r="D26" s="14">
-        <v>7.4999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F26" s="13">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G26" s="14">
-        <v>-2.9000000000000001E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -2008,25 +2011,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="13">
-        <v>3260</v>
+        <v>3246</v>
       </c>
       <c r="C27" s="13">
-        <v>2766</v>
+        <v>2918</v>
       </c>
       <c r="D27" s="14">
-        <v>0.17899999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="E27" s="13">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F27" s="13">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G27" s="14">
-        <v>-0.56899999999999995</v>
+        <v>-0.58699999999999997</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>13</v>
@@ -2052,13 +2055,13 @@
         <v>13</v>
       </c>
       <c r="E28" s="13">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" s="13">
         <v>40</v>
       </c>
       <c r="G28" s="14">
-        <v>2.3E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H28" s="13">
         <v>0</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>13</v>
@@ -2084,13 +2087,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="13">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29" s="13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="14">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="H29" s="13">
         <v>0</v>
@@ -2104,25 +2107,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="10">
-        <v>26048</v>
+        <v>28012</v>
       </c>
       <c r="C30" s="10">
-        <v>31582</v>
+        <v>33370</v>
       </c>
       <c r="D30" s="11">
-        <v>-0.17499999999999999</v>
+        <v>-0.161</v>
       </c>
       <c r="E30" s="10">
-        <v>11808</v>
+        <v>11888</v>
       </c>
       <c r="F30" s="10">
-        <v>12308</v>
+        <v>12119</v>
       </c>
       <c r="G30" s="11">
-        <v>-4.1000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>13</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>13</v>
@@ -2148,13 +2151,13 @@
         <v>13</v>
       </c>
       <c r="E31" s="13">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="F31" s="13">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G31" s="14">
-        <v>-2E-3</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="13">
         <v>0</v>
@@ -2200,31 +2203,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="13">
-        <v>4830</v>
+        <v>4878</v>
       </c>
       <c r="C33" s="13">
-        <v>6220</v>
+        <v>6357</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.224</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="E33" s="13">
-        <v>4933</v>
+        <v>4837</v>
       </c>
       <c r="F33" s="13">
-        <v>5715</v>
+        <v>5506</v>
       </c>
       <c r="G33" s="14">
-        <v>-0.13700000000000001</v>
+        <v>-0.122</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="13">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>13</v>
@@ -2232,25 +2235,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="13">
-        <v>4370</v>
+        <v>4770</v>
       </c>
       <c r="C34" s="13">
-        <v>5430</v>
+        <v>6119</v>
       </c>
       <c r="D34" s="14">
-        <v>-0.19500000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="E34" s="13">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="F34" s="13">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="G34" s="14">
-        <v>-6.0999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H34" s="13">
         <v>0</v>
@@ -2264,25 +2267,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="13">
-        <v>927</v>
+        <v>1253</v>
       </c>
       <c r="C35" s="13">
-        <v>1794</v>
+        <v>1897</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.48299999999999998</v>
+        <v>-0.33900000000000002</v>
       </c>
       <c r="E35" s="13">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F35" s="13">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="G35" s="14">
-        <v>-8.7999999999999995E-2</v>
+        <v>-0.111</v>
       </c>
       <c r="H35" s="13">
         <v>0</v>
@@ -2296,25 +2299,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="13">
-        <v>4877</v>
+        <v>5500</v>
       </c>
       <c r="C36" s="13">
-        <v>6812</v>
+        <v>7143</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.28399999999999997</v>
+        <v>-0.23</v>
       </c>
       <c r="E36" s="13">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F36" s="13">
-        <v>1200</v>
+        <v>1265</v>
       </c>
       <c r="G36" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="H36" s="13">
         <v>0</v>
@@ -2328,25 +2331,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="13">
-        <v>5136</v>
+        <v>5271</v>
       </c>
       <c r="C37" s="13">
-        <v>5429</v>
+        <v>5525</v>
       </c>
       <c r="D37" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E37" s="13">
         <v>711</v>
       </c>
       <c r="F37" s="13">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G37" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="H37" s="13">
         <v>0</v>
@@ -2360,25 +2363,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="13">
-        <v>1401</v>
+        <v>1444</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="13">
-        <v>2632</v>
+        <v>2755</v>
       </c>
       <c r="F38" s="13">
-        <v>2202</v>
+        <v>2168</v>
       </c>
       <c r="G38" s="14">
-        <v>0.19600000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H38" s="13">
         <v>0</v>
@@ -2392,10 +2395,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="13">
-        <v>4696</v>
+        <v>4902</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>13</v>
@@ -2404,13 +2407,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="13">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F39" s="13">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G39" s="14">
-        <v>-0.10199999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>13</v>
@@ -2424,25 +2427,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="10">
-        <v>15442</v>
+        <v>16531</v>
       </c>
       <c r="C40" s="10">
-        <v>17167</v>
+        <v>18732</v>
       </c>
       <c r="D40" s="11">
-        <v>-0.1</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="E40" s="10">
-        <v>1868</v>
+        <v>1989</v>
       </c>
       <c r="F40" s="10">
-        <v>1830</v>
+        <v>1809</v>
       </c>
       <c r="G40" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>13</v>
@@ -2456,25 +2459,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>3706</v>
+        <v>3674</v>
       </c>
       <c r="C41" s="13">
-        <v>3654</v>
+        <v>4150</v>
       </c>
       <c r="D41" s="14">
-        <v>1.4E-2</v>
+        <v>-0.115</v>
       </c>
       <c r="E41" s="13">
         <v>339</v>
       </c>
       <c r="F41" s="13">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G41" s="14">
-        <v>0.26600000000000001</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
@@ -2488,25 +2491,25 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="13">
-        <v>7474</v>
+        <v>8231</v>
       </c>
       <c r="C42" s="13">
-        <v>8163</v>
+        <v>9030</v>
       </c>
       <c r="D42" s="14">
-        <v>-8.4000000000000005E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E42" s="13">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" s="13">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G42" s="14">
-        <v>-6.5000000000000002E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>13</v>
@@ -2520,25 +2523,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="13">
-        <v>1174</v>
+        <v>1308</v>
       </c>
       <c r="C43" s="13">
-        <v>1559</v>
+        <v>1639</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.247</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="E43" s="13">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F43" s="13">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G43" s="14">
-        <v>-1.4E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
@@ -2552,25 +2555,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="13">
-        <v>3087</v>
+        <v>3318</v>
       </c>
       <c r="C44" s="13">
-        <v>3790</v>
+        <v>3912</v>
       </c>
       <c r="D44" s="14">
-        <v>-0.186</v>
+        <v>-0.152</v>
       </c>
       <c r="E44" s="13">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="F44" s="13">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G44" s="14">
-        <v>-1.2E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H44" s="13">
         <v>0</v>
@@ -2584,25 +2587,25 @@
     </row>
     <row r="45" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="10">
-        <v>23550</v>
+        <v>26098</v>
       </c>
       <c r="C45" s="10">
-        <v>28334</v>
+        <v>31670</v>
       </c>
       <c r="D45" s="11">
-        <v>-0.16900000000000001</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="E45" s="10">
-        <v>1850</v>
+        <v>1791</v>
       </c>
       <c r="F45" s="10">
-        <v>1890</v>
+        <v>1921</v>
       </c>
       <c r="G45" s="11">
-        <v>-2.1000000000000001E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>13</v>
@@ -2616,22 +2619,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>3950</v>
+        <v>4326</v>
       </c>
       <c r="C46" s="13">
-        <v>4505</v>
+        <v>4836</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.123</v>
+        <v>-0.105</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="13">
-        <v>184</v>
+      <c r="F46" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>13</v>
@@ -2648,25 +2651,25 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="13">
-        <v>2382</v>
+        <v>2692</v>
       </c>
       <c r="C47" s="13">
-        <v>3346</v>
+        <v>3502</v>
       </c>
       <c r="D47" s="14">
-        <v>-0.28799999999999998</v>
+        <v>-0.23100000000000001</v>
       </c>
       <c r="E47" s="13">
+        <v>420</v>
+      </c>
+      <c r="F47" s="13">
         <v>425</v>
       </c>
-      <c r="F47" s="13">
-        <v>429</v>
-      </c>
       <c r="G47" s="14">
-        <v>-0.01</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>13</v>
@@ -2680,22 +2683,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="13">
-        <v>4966</v>
+        <v>4892</v>
       </c>
       <c r="C48" s="13">
-        <v>4314</v>
+        <v>5023</v>
       </c>
       <c r="D48" s="14">
-        <v>0.151</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="13">
-        <v>88</v>
+      <c r="F48" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>13</v>
@@ -2712,25 +2715,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="13">
-        <v>12252</v>
+        <v>14189</v>
       </c>
       <c r="C49" s="13">
-        <v>16169</v>
+        <v>18308</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.24199999999999999</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="E49" s="13">
-        <v>1122</v>
+        <v>1075</v>
       </c>
       <c r="F49" s="13">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G49" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="H49" s="13">
         <v>0</v>
@@ -2744,25 +2747,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="10">
-        <v>21279</v>
+        <v>22051</v>
       </c>
       <c r="C50" s="10">
-        <v>20672</v>
+        <v>21784</v>
       </c>
       <c r="D50" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E50" s="10">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F50" s="10">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G50" s="11">
-        <v>-0.11</v>
+        <v>-0.104</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>13</v>
@@ -2776,25 +2779,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>3854</v>
+        <v>4030</v>
       </c>
       <c r="C51" s="13">
-        <v>4433</v>
+        <v>5198</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.13100000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="E51" s="13">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F51" s="13">
         <v>136</v>
       </c>
       <c r="G51" s="14">
-        <v>1.2E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
@@ -2808,25 +2811,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="13">
-        <v>5174</v>
+        <v>5325</v>
       </c>
       <c r="C52" s="13">
-        <v>5624</v>
+        <v>5813</v>
       </c>
       <c r="D52" s="14">
-        <v>-0.08</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E52" s="13">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F52" s="13">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="14">
-        <v>-0.127</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="13">
         <v>0</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>13</v>
@@ -2887,10 +2890,10 @@
         <v>18</v>
       </c>
       <c r="F54" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="14">
-        <v>-1.6E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>13</v>
@@ -2904,13 +2907,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="13">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>13</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>13</v>
@@ -2951,10 +2954,10 @@
         <v>37</v>
       </c>
       <c r="F56" s="13">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G56" s="14">
-        <v>-0.30599999999999999</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="H56" s="13">
         <v>0</v>
@@ -2968,25 +2971,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="13">
-        <v>5239</v>
+        <v>5371</v>
       </c>
       <c r="C57" s="13">
-        <v>3990</v>
+        <v>4087</v>
       </c>
       <c r="D57" s="14">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="E57" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F57" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" s="14">
-        <v>-0.224</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="H57" s="13">
         <v>0</v>
@@ -3000,25 +3003,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="13">
-        <v>4156</v>
+        <v>4417</v>
       </c>
       <c r="C58" s="13">
-        <v>3387</v>
+        <v>3407</v>
       </c>
       <c r="D58" s="14">
-        <v>0.22700000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E58" s="13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F58" s="13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" s="14">
-        <v>-0.17499999999999999</v>
+        <v>-0.214</v>
       </c>
       <c r="H58" s="13">
         <v>0</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>13</v>
@@ -3044,13 +3047,13 @@
         <v>13</v>
       </c>
       <c r="E59" s="10">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="F59" s="10">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="G59" s="11">
-        <v>3.7999999999999999E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="H59" s="10">
         <v>0</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" s="13">
         <v>0</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>13</v>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>13</v>
@@ -3140,13 +3143,13 @@
         <v>13</v>
       </c>
       <c r="E62" s="13">
+        <v>212</v>
+      </c>
+      <c r="F62" s="13">
         <v>254</v>
       </c>
-      <c r="F62" s="13">
-        <v>241</v>
-      </c>
       <c r="G62" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="63" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>13</v>
@@ -3172,13 +3175,13 @@
         <v>13</v>
       </c>
       <c r="E63" s="10">
-        <v>2305</v>
+        <v>2327</v>
       </c>
       <c r="F63" s="10">
-        <v>2699</v>
+        <v>2758</v>
       </c>
       <c r="G63" s="11">
-        <v>-0.14599999999999999</v>
+        <v>-0.156</v>
       </c>
       <c r="H63" s="10">
         <v>0</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>13</v>
@@ -3204,13 +3207,13 @@
         <v>13</v>
       </c>
       <c r="E64" s="13">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F64" s="13">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G64" s="14">
-        <v>-0.51500000000000001</v>
+        <v>-0.66900000000000004</v>
       </c>
       <c r="H64" s="13">
         <v>0</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>13</v>
@@ -3236,13 +3239,13 @@
         <v>13</v>
       </c>
       <c r="E65" s="13">
-        <v>2168</v>
+        <v>2229</v>
       </c>
       <c r="F65" s="13">
-        <v>2416</v>
+        <v>2461</v>
       </c>
       <c r="G65" s="14">
-        <v>-0.10299999999999999</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="H65" s="13">
         <v>0</v>
@@ -3256,39 +3259,39 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" s="10">
-        <v>163474</v>
+        <v>172139</v>
       </c>
       <c r="C66" s="10">
-        <v>175588</v>
+        <v>188595</v>
       </c>
       <c r="D66" s="11">
-        <v>-6.9000000000000006E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E66" s="10">
-        <v>34605</v>
+        <v>30847</v>
       </c>
       <c r="F66" s="10">
-        <v>32462</v>
+        <v>33487</v>
       </c>
       <c r="G66" s="11">
-        <v>6.6000000000000003E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="H66" s="10">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="I66" s="10">
-        <v>1151</v>
+        <v>1290</v>
       </c>
       <c r="J66" s="11">
-        <v>-0.29399999999999998</v>
+        <v>-0.35399999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
